--- a/target/test-classes/FBURL.xlsx
+++ b/target/test-classes/FBURL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>URLs</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>https://www.fabhotels.com/faqs/fab-credits</t>
+  </si>
+  <si>
+    <t>https://www.fabhotels.com/uiuiuiiuyad</t>
+  </si>
+  <si>
+    <t>https://www.fabhotels.com/uiuiuiiuyad/hihuiu</t>
   </si>
 </sst>
 </file>
@@ -354,7 +360,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -436,6 +442,16 @@
     <row r="19">
       <c r="A19" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -458,7 +474,9 @@
     <hyperlink r:id="rId16" ref="A17"/>
     <hyperlink r:id="rId17" ref="A18"/>
     <hyperlink r:id="rId18" ref="A19"/>
+    <hyperlink r:id="rId19" ref="A20"/>
+    <hyperlink r:id="rId20" ref="A21"/>
   </hyperlinks>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>